--- a/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104E1ED-62A6-41A9-8311-856EDB1F6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42BE792-0BA2-4C75-B31D-1A8EEC8BCE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897AB4C-25DF-4BBA-A016-FC2BA7BA1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A9BC1-034E-4BAF-9CAE-0E1750F07A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -678,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I170"/>
+  <dimension ref="B1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,8 +711,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,8 +728,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,8 +745,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,8 +760,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,8 +777,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -754,8 +794,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -764,8 +809,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -786,8 +836,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -796,10 +861,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -808,320 +878,520 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>63639</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>53242</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>69288</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>71942</v>
+      </c>
+      <c r="F13" s="11">
+        <v>83462</v>
+      </c>
+      <c r="G13" s="11">
+        <v>87097</v>
+      </c>
+      <c r="H13" s="11">
+        <v>74794</v>
+      </c>
+      <c r="I13" s="11">
+        <v>61373</v>
+      </c>
+      <c r="J13" s="11">
         <v>80555</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>182369</v>
+      </c>
+      <c r="F14" s="13">
+        <v>156036</v>
+      </c>
+      <c r="G14" s="13">
+        <v>150054</v>
+      </c>
+      <c r="H14" s="13">
+        <v>135102</v>
+      </c>
+      <c r="I14" s="13">
+        <v>91833</v>
+      </c>
+      <c r="J14" s="13">
         <v>125699</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>37428</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>42740</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>68906</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>8145</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>16496</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>21061</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>67163</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>53863</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>73559</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>398</v>
+      </c>
+      <c r="F18" s="13">
+        <v>392</v>
+      </c>
+      <c r="G18" s="13">
+        <v>128</v>
+      </c>
+      <c r="H18" s="13">
+        <v>149</v>
+      </c>
+      <c r="I18" s="13">
+        <v>26</v>
+      </c>
+      <c r="J18" s="13">
         <v>24</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>68</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>48</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="13">
+        <v>83</v>
       </c>
       <c r="G20" s="13">
+        <v>-83</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>109</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>53</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>0</v>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-3</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>254709</v>
+      </c>
+      <c r="F23" s="15">
+        <v>239976</v>
+      </c>
+      <c r="G23" s="15">
+        <v>237193</v>
+      </c>
+      <c r="H23" s="15">
+        <v>210045</v>
+      </c>
+      <c r="I23" s="15">
+        <v>153232</v>
+      </c>
+      <c r="J23" s="15">
         <v>206278</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>176552</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>166442</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>232982</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1130,248 +1400,403 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>13</v>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13769</v>
+      </c>
+      <c r="F26" s="13">
+        <v>7634</v>
+      </c>
+      <c r="G26" s="13">
+        <v>3104</v>
+      </c>
+      <c r="H26" s="13">
+        <v>680</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
+        <v>18</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
         <v>99</v>
       </c>
-      <c r="I28" s="13">
+      <c r="N28" s="13">
         <v>4110</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>11453</v>
+      </c>
+      <c r="F29" s="11">
+        <v>53462</v>
+      </c>
+      <c r="G29" s="11">
+        <v>96946</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1744</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="13">
-        <v>0</v>
+      <c r="E30" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17">
-        <v>0</v>
+        <v>25222</v>
       </c>
       <c r="F34" s="17">
-        <v>0</v>
+        <v>61096</v>
       </c>
       <c r="G34" s="17">
-        <v>0</v>
+        <v>100050</v>
       </c>
       <c r="H34" s="17">
+        <v>2424</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
         <v>99</v>
       </c>
-      <c r="I34" s="17">
+      <c r="N34" s="17">
         <v>4110</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1380,10 +1805,15 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -1402,40 +1832,70 @@
       <c r="I36" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>13</v>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
         <v>0</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>13</v>
+      <c r="F38" s="15">
+        <v>0</v>
       </c>
       <c r="G38" s="15">
         <v>0</v>
@@ -1446,30 +1906,60 @@
       <c r="I38" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
+        <v>279931</v>
+      </c>
+      <c r="F39" s="17">
+        <v>301072</v>
+      </c>
+      <c r="G39" s="17">
+        <v>337243</v>
+      </c>
+      <c r="H39" s="17">
+        <v>212469</v>
+      </c>
+      <c r="I39" s="17">
+        <v>153232</v>
+      </c>
+      <c r="J39" s="17">
         <v>206278</v>
       </c>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
         <v>176552</v>
       </c>
-      <c r="H39" s="17">
+      <c r="M39" s="17">
         <v>166541</v>
       </c>
-      <c r="I39" s="17">
+      <c r="N39" s="17">
         <v>237092</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1478,8 +1968,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1488,8 +1983,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1498,10 +1998,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1520,8 +2025,23 @@
       <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1530,10 +2050,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1542,320 +2067,520 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="13">
+        <v>18</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="13">
         <v>367416</v>
       </c>
-      <c r="H47" s="13">
+      <c r="M47" s="13">
         <v>457370</v>
       </c>
-      <c r="I47" s="13">
+      <c r="N47" s="13">
         <v>509461</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>146757</v>
+      </c>
+      <c r="F48" s="11">
+        <v>180971</v>
+      </c>
+      <c r="G48" s="11">
+        <v>190005</v>
+      </c>
+      <c r="H48" s="11">
+        <v>220816</v>
+      </c>
+      <c r="I48" s="11">
+        <v>297748</v>
+      </c>
+      <c r="J48" s="11">
         <v>378548</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>441295</v>
+      </c>
+      <c r="F49" s="13">
+        <v>454285</v>
+      </c>
+      <c r="G49" s="13">
+        <v>459280</v>
+      </c>
+      <c r="H49" s="13">
+        <v>551159</v>
+      </c>
+      <c r="I49" s="13">
+        <v>576179</v>
+      </c>
+      <c r="J49" s="13">
         <v>717214</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11">
+        <v>18</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11">
         <v>254296</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>304594</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>466090</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="13">
+        <v>18</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13">
         <v>48489</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>107553</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>115747</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
+        <v>18</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11">
         <v>447158</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>413854</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>540285</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>445</v>
+      </c>
+      <c r="F53" s="13">
+        <v>460</v>
+      </c>
+      <c r="G53" s="13">
+        <v>161</v>
+      </c>
+      <c r="H53" s="13">
+        <v>196</v>
+      </c>
+      <c r="I53" s="13">
+        <v>46</v>
+      </c>
+      <c r="J53" s="13">
         <v>94</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13">
         <v>265</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>184</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F55" s="13">
+        <v>847</v>
       </c>
       <c r="G55" s="13">
+        <v>-847</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13">
         <v>2410</v>
       </c>
-      <c r="H55" s="13">
+      <c r="M55" s="13">
         <v>1783</v>
       </c>
-      <c r="I55" s="13">
+      <c r="N55" s="13">
         <v>3236</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>0</v>
+      <c r="E56" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="G56" s="11">
+        <v>-6</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
+        <v>588497</v>
+      </c>
+      <c r="F58" s="15">
+        <v>636569</v>
+      </c>
+      <c r="G58" s="15">
+        <v>648593</v>
+      </c>
+      <c r="H58" s="15">
+        <v>772171</v>
+      </c>
+      <c r="I58" s="15">
+        <v>873973</v>
+      </c>
+      <c r="J58" s="15">
         <v>1095856</v>
       </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15">
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
         <v>1120034</v>
       </c>
-      <c r="H58" s="15">
+      <c r="M58" s="15">
         <v>1285338</v>
       </c>
-      <c r="I58" s="15">
+      <c r="N58" s="15">
         <v>1635192</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1864,248 +2589,403 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>13</v>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>33057</v>
+      </c>
+      <c r="F61" s="13">
+        <v>29988</v>
+      </c>
+      <c r="G61" s="13">
+        <v>9371</v>
+      </c>
+      <c r="H61" s="13">
+        <v>2622</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
+        <v>0</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="13">
-        <v>0</v>
-      </c>
-      <c r="H63" s="13">
+        <v>18</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0</v>
+      </c>
+      <c r="M63" s="13">
         <v>1224</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>51111</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34121</v>
+      </c>
+      <c r="F64" s="11">
+        <v>273837</v>
+      </c>
+      <c r="G64" s="11">
+        <v>357275</v>
+      </c>
+      <c r="H64" s="11">
+        <v>8718</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13">
-        <v>0</v>
+      <c r="E65" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="13">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>13</v>
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17">
-        <v>0</v>
+        <v>67178</v>
       </c>
       <c r="F69" s="17">
-        <v>0</v>
+        <v>303825</v>
       </c>
       <c r="G69" s="17">
-        <v>0</v>
+        <v>366646</v>
       </c>
       <c r="H69" s="17">
+        <v>11340</v>
+      </c>
+      <c r="I69" s="17">
+        <v>0</v>
+      </c>
+      <c r="J69" s="17">
+        <v>0</v>
+      </c>
+      <c r="K69" s="17">
+        <v>0</v>
+      </c>
+      <c r="L69" s="17">
+        <v>0</v>
+      </c>
+      <c r="M69" s="17">
         <v>1224</v>
       </c>
-      <c r="I69" s="17">
+      <c r="N69" s="17">
         <v>51111</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -2114,10 +2994,15 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2136,44 +3021,74 @@
       <c r="I71" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="15">
+        <v>0</v>
+      </c>
+      <c r="K71" s="15">
+        <v>0</v>
+      </c>
+      <c r="L71" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="15">
+        <v>0</v>
+      </c>
+      <c r="N71" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>13</v>
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17">
+        <v>0</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
         <v>0</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>13</v>
+      <c r="F73" s="15">
+        <v>0</v>
       </c>
       <c r="G73" s="15">
         <v>0</v>
@@ -2184,30 +3099,60 @@
       <c r="I73" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="15">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15">
+        <v>0</v>
+      </c>
+      <c r="N73" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17">
+        <v>655675</v>
+      </c>
+      <c r="F74" s="17">
+        <v>940394</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1015239</v>
+      </c>
+      <c r="H74" s="17">
+        <v>783511</v>
+      </c>
+      <c r="I74" s="17">
+        <v>873973</v>
+      </c>
+      <c r="J74" s="17">
         <v>1095856</v>
       </c>
-      <c r="F74" s="17">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17">
+      <c r="K74" s="17">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17">
         <v>1120034</v>
       </c>
-      <c r="H74" s="17">
+      <c r="M74" s="17">
         <v>1286562</v>
       </c>
-      <c r="I74" s="17">
+      <c r="N74" s="17">
         <v>1686303</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2216,8 +3161,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2226,8 +3176,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2236,10 +3191,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2258,8 +3218,23 @@
       <c r="I78" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2268,10 +3243,15 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2280,298 +3260,483 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="13">
+        <v>18</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="13">
         <v>4836942</v>
       </c>
-      <c r="G82" s="13">
+      <c r="L82" s="13">
         <v>5773441</v>
       </c>
-      <c r="H82" s="13">
+      <c r="M82" s="13">
         <v>7056630</v>
       </c>
-      <c r="I82" s="13">
+      <c r="N82" s="13">
         <v>7352803</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>2039935</v>
+      </c>
+      <c r="F83" s="11">
+        <v>2168304</v>
+      </c>
+      <c r="G83" s="11">
+        <v>2181533</v>
+      </c>
+      <c r="H83" s="11">
+        <v>2952322</v>
+      </c>
+      <c r="I83" s="11">
+        <v>3808294</v>
+      </c>
+      <c r="J83" s="11">
         <v>4139460</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
+        <v>2419792</v>
+      </c>
+      <c r="F84" s="13">
+        <v>2911411</v>
+      </c>
+      <c r="G84" s="13">
+        <v>3060765</v>
+      </c>
+      <c r="H84" s="13">
+        <v>4079577</v>
+      </c>
+      <c r="I84" s="13">
+        <v>4967669</v>
+      </c>
+      <c r="J84" s="13">
         <v>5230783</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11">
+        <v>18</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11">
         <v>5143279</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>6794272</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>6971485</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>6764142</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13">
+        <v>18</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="13">
         <v>3984279</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>5953223</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>6332616</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>5495798</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11">
+        <v>18</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11">
         <v>5767887</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>6657803</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>7114273</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>7344920</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>1118090</v>
+      </c>
+      <c r="F88" s="13">
+        <v>1173469</v>
+      </c>
+      <c r="G88" s="13">
+        <v>1257813</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1315436</v>
+      </c>
+      <c r="I88" s="13">
+        <v>1769231</v>
+      </c>
+      <c r="J88" s="13">
         <v>3916667</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>3871166</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>3897059</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>3870690</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>3885417</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" s="13">
+        <v>10204819</v>
+      </c>
+      <c r="G90" s="13">
+        <v>10204819</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="13">
         <v>16010101</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>22110092</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>25882716</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>44944444</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F91" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="G91" s="11">
+        <v>2000000</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2580,224 +3745,364 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>2400828</v>
+      </c>
+      <c r="F95" s="13">
+        <v>3928216</v>
+      </c>
+      <c r="G95" s="13">
+        <v>3019008</v>
+      </c>
+      <c r="H95" s="13">
         <v>3855882</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="13">
+        <v>3855882</v>
+      </c>
+      <c r="J95" s="13">
+        <v>3855882</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="11">
+        <v>18</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11">
         <v>3905632</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="13">
+        <v>18</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="13">
         <v>2590909</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="13">
+      <c r="L97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="13">
         <v>12363636</v>
       </c>
-      <c r="I97" s="13">
+      <c r="N97" s="13">
         <v>12435766</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>2979219</v>
+      </c>
+      <c r="F98" s="11">
+        <v>5122087</v>
+      </c>
+      <c r="G98" s="11">
+        <v>3685299</v>
+      </c>
+      <c r="H98" s="11">
         <v>4998853</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="11">
+        <v>4998853</v>
+      </c>
+      <c r="J98" s="11">
+        <v>4998853</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="11">
+        <v>18</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="11">
         <v>4998853</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2806,8 +4111,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2816,8 +4126,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2826,10 +4141,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2848,8 +4168,23 @@
       <c r="I106" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2858,10 +4193,15 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2870,320 +4210,520 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>13</v>
+      <c r="E109" s="11">
+        <v>0</v>
+      </c>
+      <c r="F109" s="11">
+        <v>0</v>
+      </c>
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="13">
+        <v>18</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="13">
         <v>-552613</v>
       </c>
-      <c r="G110" s="13">
+      <c r="L110" s="13">
         <v>-183184</v>
       </c>
-      <c r="H110" s="13">
+      <c r="M110" s="13">
         <v>-200439</v>
       </c>
-      <c r="I110" s="13">
+      <c r="N110" s="13">
         <v>-339538</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
+        <v>-75728</v>
+      </c>
+      <c r="F111" s="11">
+        <v>-126102</v>
+      </c>
+      <c r="G111" s="11">
+        <v>-104518</v>
+      </c>
+      <c r="H111" s="11">
+        <v>-131578</v>
+      </c>
+      <c r="I111" s="11">
+        <v>-143661</v>
+      </c>
+      <c r="J111" s="11">
         <v>-287825</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
+        <v>-275222</v>
+      </c>
+      <c r="F112" s="13">
+        <v>-337113</v>
+      </c>
+      <c r="G112" s="13">
+        <v>-271342</v>
+      </c>
+      <c r="H112" s="13">
+        <v>-378449</v>
+      </c>
+      <c r="I112" s="13">
+        <v>-305047</v>
+      </c>
+      <c r="J112" s="13">
         <v>-232679</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11">
+        <v>18</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="11">
         <v>-716462</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>-129691</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>-187411</v>
       </c>
-      <c r="I113" s="11">
+      <c r="N113" s="11">
         <v>-238438</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="13">
+        <v>18</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="13">
         <v>-161524</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>-23420</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>-44657</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>-79233</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="11">
+        <v>18</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="11">
         <v>-858576</v>
       </c>
-      <c r="G115" s="11">
+      <c r="L115" s="11">
         <v>-236994</v>
       </c>
-      <c r="H115" s="11">
+      <c r="M115" s="11">
         <v>-254309</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>-326597</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
+        <v>-262</v>
+      </c>
+      <c r="F116" s="13">
+        <v>-220</v>
+      </c>
+      <c r="G116" s="13">
+        <v>-93</v>
+      </c>
+      <c r="H116" s="13">
+        <v>-149</v>
+      </c>
+      <c r="I116" s="13">
+        <v>-2</v>
+      </c>
+      <c r="J116" s="13">
         <v>-20</v>
       </c>
-      <c r="F116" s="13">
+      <c r="K116" s="13">
         <v>-344</v>
       </c>
-      <c r="G116" s="13">
+      <c r="L116" s="13">
         <v>-124</v>
       </c>
-      <c r="H116" s="13">
+      <c r="M116" s="13">
         <v>-26</v>
       </c>
-      <c r="I116" s="13">
+      <c r="N116" s="13">
         <v>-584</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" s="13">
+        <v>-102</v>
+      </c>
+      <c r="G118" s="13">
+        <v>102</v>
+      </c>
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="13">
         <v>-874</v>
       </c>
-      <c r="G118" s="13">
+      <c r="L118" s="13">
         <v>-636</v>
       </c>
-      <c r="H118" s="13">
+      <c r="M118" s="13">
         <v>97</v>
       </c>
-      <c r="I118" s="13">
+      <c r="N118" s="13">
         <v>-3487</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11">
-        <v>0</v>
+      <c r="E119" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F119" s="11">
-        <v>0</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>13</v>
+        <v>-3</v>
+      </c>
+      <c r="G119" s="11">
+        <v>3</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J119" s="11">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>-351212</v>
+      </c>
+      <c r="F121" s="15">
+        <v>-463540</v>
+      </c>
+      <c r="G121" s="15">
+        <v>-375848</v>
+      </c>
+      <c r="H121" s="15">
+        <v>-510176</v>
+      </c>
+      <c r="I121" s="15">
+        <v>-448710</v>
+      </c>
+      <c r="J121" s="15">
         <v>-520524</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>-2290393</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>-574049</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>-686745</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>-987877</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3192,248 +4732,403 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>13</v>
+      <c r="E123" s="11">
+        <v>0</v>
+      </c>
+      <c r="F123" s="11">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11">
+        <v>0</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-19463</v>
+      </c>
+      <c r="F124" s="13">
+        <v>-22033</v>
+      </c>
+      <c r="G124" s="13">
+        <v>-927</v>
+      </c>
+      <c r="H124" s="13">
+        <v>-1876</v>
+      </c>
+      <c r="I124" s="13">
+        <v>-131</v>
+      </c>
+      <c r="J124" s="13">
+        <v>0</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="11">
+        <v>18</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="11">
         <v>-2163</v>
       </c>
-      <c r="G125" s="11">
-        <v>0</v>
-      </c>
-      <c r="H125" s="11">
-        <v>0</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L125" s="11">
+        <v>0</v>
+      </c>
+      <c r="M125" s="11">
+        <v>0</v>
+      </c>
+      <c r="N125" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="13">
+        <v>18</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13">
         <v>-22</v>
       </c>
-      <c r="G126" s="13">
-        <v>0</v>
-      </c>
-      <c r="H126" s="13">
+      <c r="L126" s="13">
+        <v>0</v>
+      </c>
+      <c r="M126" s="13">
         <v>-406</v>
       </c>
-      <c r="I126" s="13">
+      <c r="N126" s="13">
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>0</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-10</v>
+      </c>
+      <c r="F127" s="11">
+        <v>-88280</v>
+      </c>
+      <c r="G127" s="11">
+        <v>6330</v>
+      </c>
+      <c r="H127" s="11">
+        <v>-2713</v>
+      </c>
+      <c r="I127" s="11">
+        <v>-150</v>
+      </c>
+      <c r="J127" s="11">
+        <v>0</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D128" s="13"/>
-      <c r="E128" s="13">
-        <v>0</v>
+      <c r="E128" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J128" s="13">
+        <v>0</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="11">
+        <v>18</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11">
         <v>-3202</v>
       </c>
-      <c r="G129" s="11">
-        <v>0</v>
-      </c>
-      <c r="H129" s="11">
-        <v>0</v>
-      </c>
-      <c r="I129" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L129" s="11">
+        <v>0</v>
+      </c>
+      <c r="M129" s="11">
+        <v>0</v>
+      </c>
+      <c r="N129" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13">
+        <v>0</v>
+      </c>
+      <c r="L130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>13</v>
+      <c r="E131" s="11">
+        <v>0</v>
+      </c>
+      <c r="F131" s="11">
+        <v>0</v>
+      </c>
+      <c r="G131" s="11">
+        <v>0</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17">
-        <v>0</v>
+        <v>-19473</v>
       </c>
       <c r="F132" s="17">
+        <v>-110313</v>
+      </c>
+      <c r="G132" s="17">
+        <v>5403</v>
+      </c>
+      <c r="H132" s="17">
+        <v>-4589</v>
+      </c>
+      <c r="I132" s="17">
+        <v>-281</v>
+      </c>
+      <c r="J132" s="17">
+        <v>0</v>
+      </c>
+      <c r="K132" s="17">
         <v>-5387</v>
       </c>
-      <c r="G132" s="17">
-        <v>0</v>
-      </c>
-      <c r="H132" s="17">
+      <c r="L132" s="17">
+        <v>0</v>
+      </c>
+      <c r="M132" s="17">
         <v>-406</v>
       </c>
-      <c r="I132" s="17">
+      <c r="N132" s="17">
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -3442,10 +5137,15 @@
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -3464,37 +5164,67 @@
       <c r="I134" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="15">
+        <v>0</v>
+      </c>
+      <c r="K134" s="15">
+        <v>0</v>
+      </c>
+      <c r="L134" s="15">
+        <v>0</v>
+      </c>
+      <c r="M134" s="15">
+        <v>0</v>
+      </c>
+      <c r="N134" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D135" s="17"/>
-      <c r="E135" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>13</v>
+      <c r="E135" s="17">
+        <v>0</v>
+      </c>
+      <c r="F135" s="17">
+        <v>0</v>
+      </c>
+      <c r="G135" s="17">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17">
+        <v>0</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N135" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15">
@@ -3512,30 +5242,60 @@
       <c r="I136" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="15">
+        <v>0</v>
+      </c>
+      <c r="K136" s="15">
+        <v>0</v>
+      </c>
+      <c r="L136" s="15">
+        <v>0</v>
+      </c>
+      <c r="M136" s="15">
+        <v>0</v>
+      </c>
+      <c r="N136" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
+        <v>-370685</v>
+      </c>
+      <c r="F137" s="17">
+        <v>-573853</v>
+      </c>
+      <c r="G137" s="17">
+        <v>-370445</v>
+      </c>
+      <c r="H137" s="17">
+        <v>-514765</v>
+      </c>
+      <c r="I137" s="17">
+        <v>-448991</v>
+      </c>
+      <c r="J137" s="17">
         <v>-520524</v>
       </c>
-      <c r="F137" s="17">
+      <c r="K137" s="17">
         <v>-2295780</v>
       </c>
-      <c r="G137" s="17">
+      <c r="L137" s="17">
         <v>-574049</v>
       </c>
-      <c r="H137" s="17">
+      <c r="M137" s="17">
         <v>-687151</v>
       </c>
-      <c r="I137" s="17">
+      <c r="N137" s="17">
         <v>-987471</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3544,8 +5304,13 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3554,8 +5319,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3564,10 +5334,15 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3586,8 +5361,23 @@
       <c r="I141" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3596,10 +5386,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -3608,320 +5403,520 @@
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>13</v>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
+      <c r="F144" s="11">
+        <v>0</v>
+      </c>
+      <c r="G144" s="11">
+        <v>0</v>
+      </c>
+      <c r="H144" s="11">
+        <v>0</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="13">
+        <v>18</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="13">
         <v>576605</v>
       </c>
-      <c r="G145" s="13">
+      <c r="L145" s="13">
         <v>184232</v>
       </c>
-      <c r="H145" s="13">
+      <c r="M145" s="13">
         <v>256931</v>
       </c>
-      <c r="I145" s="13">
+      <c r="N145" s="13">
         <v>169923</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>71029</v>
+      </c>
+      <c r="F146" s="11">
+        <v>54869</v>
+      </c>
+      <c r="G146" s="11">
+        <v>86334</v>
+      </c>
+      <c r="H146" s="11">
+        <v>89238</v>
+      </c>
+      <c r="I146" s="11">
+        <v>154087</v>
+      </c>
+      <c r="J146" s="11">
         <v>90723</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13">
+        <v>166073</v>
+      </c>
+      <c r="F147" s="13">
+        <v>117172</v>
+      </c>
+      <c r="G147" s="13">
+        <v>187938</v>
+      </c>
+      <c r="H147" s="13">
+        <v>172710</v>
+      </c>
+      <c r="I147" s="13">
+        <v>271132</v>
+      </c>
+      <c r="J147" s="13">
         <v>484535</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K147" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="11">
+        <v>18</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="11">
         <v>429008</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>124605</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>117183</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>227652</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="13">
+        <v>18</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="13">
         <v>141086</v>
       </c>
-      <c r="G149" s="13">
+      <c r="L149" s="13">
         <v>25069</v>
       </c>
-      <c r="H149" s="13">
+      <c r="M149" s="13">
         <v>62896</v>
       </c>
-      <c r="I149" s="13">
+      <c r="N149" s="13">
         <v>36514</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="11">
+        <v>18</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="11">
         <v>653666</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>210164</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>159545</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>213688</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13">
+        <v>183</v>
+      </c>
+      <c r="F151" s="13">
+        <v>240</v>
+      </c>
+      <c r="G151" s="13">
+        <v>68</v>
+      </c>
+      <c r="H151" s="13">
+        <v>47</v>
+      </c>
+      <c r="I151" s="13">
+        <v>44</v>
+      </c>
+      <c r="J151" s="13">
         <v>74</v>
       </c>
-      <c r="F151" s="13">
+      <c r="K151" s="13">
         <v>287</v>
       </c>
-      <c r="G151" s="13">
+      <c r="L151" s="13">
         <v>141</v>
       </c>
-      <c r="H151" s="13">
+      <c r="M151" s="13">
         <v>158</v>
       </c>
-      <c r="I151" s="13">
+      <c r="N151" s="13">
         <v>-211</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F153" s="13">
+        <v>745</v>
+      </c>
+      <c r="G153" s="13">
+        <v>-745</v>
+      </c>
+      <c r="H153" s="13">
+        <v>0</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="13">
         <v>3881</v>
       </c>
-      <c r="G153" s="13">
+      <c r="L153" s="13">
         <v>1774</v>
       </c>
-      <c r="H153" s="13">
+      <c r="M153" s="13">
         <v>1880</v>
       </c>
-      <c r="I153" s="13">
+      <c r="N153" s="13">
         <v>-251</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="11">
-        <v>0</v>
+      <c r="E154" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F154" s="11">
-        <v>0</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G154" s="11">
+        <v>-3</v>
+      </c>
+      <c r="H154" s="11">
+        <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J154" s="11">
+        <v>0</v>
+      </c>
+      <c r="K154" s="11">
+        <v>0</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15">
+        <v>237285</v>
+      </c>
+      <c r="F156" s="15">
+        <v>173029</v>
+      </c>
+      <c r="G156" s="15">
+        <v>273592</v>
+      </c>
+      <c r="H156" s="15">
+        <v>261995</v>
+      </c>
+      <c r="I156" s="15">
+        <v>425263</v>
+      </c>
+      <c r="J156" s="15">
         <v>575332</v>
       </c>
-      <c r="F156" s="15">
+      <c r="K156" s="15">
         <v>1804533</v>
       </c>
-      <c r="G156" s="15">
+      <c r="L156" s="15">
         <v>545985</v>
       </c>
-      <c r="H156" s="15">
+      <c r="M156" s="15">
         <v>598593</v>
       </c>
-      <c r="I156" s="15">
+      <c r="N156" s="15">
         <v>647315</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3930,248 +5925,403 @@
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>13</v>
+      <c r="E158" s="11">
+        <v>0</v>
+      </c>
+      <c r="F158" s="11">
+        <v>0</v>
+      </c>
+      <c r="G158" s="11">
+        <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>0</v>
-      </c>
-      <c r="F159" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13594</v>
+      </c>
+      <c r="F159" s="13">
+        <v>7955</v>
+      </c>
+      <c r="G159" s="13">
+        <v>8444</v>
+      </c>
+      <c r="H159" s="13">
+        <v>746</v>
+      </c>
+      <c r="I159" s="13">
+        <v>-131</v>
+      </c>
+      <c r="J159" s="13">
+        <v>0</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M159" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N159" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="11">
+        <v>18</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="11">
         <v>403</v>
       </c>
-      <c r="G160" s="11">
-        <v>0</v>
-      </c>
-      <c r="H160" s="11">
-        <v>0</v>
-      </c>
-      <c r="I160" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="13">
+        <v>18</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="13">
         <v>35</v>
       </c>
-      <c r="G161" s="13">
-        <v>0</v>
-      </c>
-      <c r="H161" s="13">
+      <c r="L161" s="13">
+        <v>0</v>
+      </c>
+      <c r="M161" s="13">
         <v>818</v>
       </c>
-      <c r="I161" s="13">
+      <c r="N161" s="13">
         <v>51517</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>0</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34111</v>
+      </c>
+      <c r="F162" s="11">
+        <v>185557</v>
+      </c>
+      <c r="G162" s="11">
+        <v>7505</v>
+      </c>
+      <c r="H162" s="11">
+        <v>6005</v>
+      </c>
+      <c r="I162" s="11">
+        <v>-150</v>
+      </c>
+      <c r="J162" s="11">
+        <v>0</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D163" s="13"/>
-      <c r="E163" s="13">
-        <v>0</v>
+      <c r="E163" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J163" s="13">
+        <v>0</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L163" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M163" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N163" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="11">
+        <v>18</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" s="11">
         <v>5516</v>
       </c>
-      <c r="G164" s="11">
-        <v>0</v>
-      </c>
-      <c r="H164" s="11">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J165" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="13">
+        <v>0</v>
+      </c>
+      <c r="L165" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M165" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N165" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>13</v>
+      <c r="E166" s="11">
+        <v>0</v>
+      </c>
+      <c r="F166" s="11">
+        <v>0</v>
+      </c>
+      <c r="G166" s="11">
+        <v>0</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17">
-        <v>0</v>
+        <v>47705</v>
       </c>
       <c r="F167" s="17">
+        <v>193512</v>
+      </c>
+      <c r="G167" s="17">
+        <v>15949</v>
+      </c>
+      <c r="H167" s="17">
+        <v>6751</v>
+      </c>
+      <c r="I167" s="17">
+        <v>-281</v>
+      </c>
+      <c r="J167" s="17">
+        <v>0</v>
+      </c>
+      <c r="K167" s="17">
         <v>5954</v>
       </c>
-      <c r="G167" s="17">
-        <v>0</v>
-      </c>
-      <c r="H167" s="17">
+      <c r="L167" s="17">
+        <v>0</v>
+      </c>
+      <c r="M167" s="17">
         <v>818</v>
       </c>
-      <c r="I167" s="17">
+      <c r="N167" s="17">
         <v>51517</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
@@ -4180,10 +6330,15 @@
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -4202,26 +6357,56 @@
       <c r="I169" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="15">
+        <v>0</v>
+      </c>
+      <c r="K169" s="15">
+        <v>0</v>
+      </c>
+      <c r="L169" s="15">
+        <v>0</v>
+      </c>
+      <c r="M169" s="15">
+        <v>0</v>
+      </c>
+      <c r="N169" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17">
+        <v>284990</v>
+      </c>
+      <c r="F170" s="17">
+        <v>366541</v>
+      </c>
+      <c r="G170" s="17">
+        <v>289541</v>
+      </c>
+      <c r="H170" s="17">
+        <v>268746</v>
+      </c>
+      <c r="I170" s="17">
+        <v>424982</v>
+      </c>
+      <c r="J170" s="17">
         <v>575332</v>
       </c>
-      <c r="F170" s="17">
+      <c r="K170" s="17">
         <v>1810487</v>
       </c>
-      <c r="G170" s="17">
+      <c r="L170" s="17">
         <v>545985</v>
       </c>
-      <c r="H170" s="17">
+      <c r="M170" s="17">
         <v>599411</v>
       </c>
-      <c r="I170" s="17">
+      <c r="N170" s="17">
         <v>698832</v>
       </c>
     </row>

--- a/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A9BC1-034E-4BAF-9CAE-0E1750F07A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DFCB5-9FA1-4A6E-A04E-AD778217161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -697,12 +697,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -717,7 +717,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -815,7 +815,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -867,7 +867,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -901,8 +901,8 @@
       <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>18</v>
@@ -923,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -949,20 +949,20 @@
       <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="K12" s="13">
+        <v>63639</v>
       </c>
       <c r="L12" s="13">
-        <v>63639</v>
+        <v>53242</v>
       </c>
       <c r="M12" s="13">
-        <v>53242</v>
+        <v>69288</v>
       </c>
       <c r="N12" s="13">
-        <v>69288</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71924</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -971,23 +971,23 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>71942</v>
+        <v>83462</v>
       </c>
       <c r="F13" s="11">
-        <v>83462</v>
+        <v>87097</v>
       </c>
       <c r="G13" s="11">
-        <v>87097</v>
+        <v>74794</v>
       </c>
       <c r="H13" s="11">
-        <v>74794</v>
+        <v>61373</v>
       </c>
       <c r="I13" s="11">
-        <v>61373</v>
-      </c>
-      <c r="J13" s="11">
         <v>80555</v>
       </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1010,23 +1010,23 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>182369</v>
+        <v>156036</v>
       </c>
       <c r="F14" s="13">
-        <v>156036</v>
+        <v>150054</v>
       </c>
       <c r="G14" s="13">
-        <v>150054</v>
+        <v>135102</v>
       </c>
       <c r="H14" s="13">
-        <v>135102</v>
+        <v>91833</v>
       </c>
       <c r="I14" s="13">
-        <v>91833</v>
-      </c>
-      <c r="J14" s="13">
         <v>125699</v>
       </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1066,20 +1066,20 @@
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="K15" s="11">
+        <v>37428</v>
       </c>
       <c r="L15" s="11">
-        <v>37428</v>
+        <v>42740</v>
       </c>
       <c r="M15" s="11">
-        <v>42740</v>
+        <v>68906</v>
       </c>
       <c r="N15" s="11">
-        <v>68906</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64383</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1105,20 +1105,20 @@
       <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>8145</v>
       </c>
       <c r="L16" s="13">
-        <v>8145</v>
+        <v>16496</v>
       </c>
       <c r="M16" s="13">
-        <v>16496</v>
+        <v>21061</v>
       </c>
       <c r="N16" s="13">
-        <v>21061</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26675</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1144,20 +1144,20 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>67163</v>
       </c>
       <c r="L17" s="11">
-        <v>67163</v>
+        <v>53863</v>
       </c>
       <c r="M17" s="11">
-        <v>53863</v>
+        <v>73559</v>
       </c>
       <c r="N17" s="11">
-        <v>73559</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72577</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1166,37 +1166,37 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F18" s="13">
-        <v>392</v>
+        <v>128</v>
       </c>
       <c r="G18" s="13">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H18" s="13">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I18" s="13">
-        <v>26</v>
-      </c>
-      <c r="J18" s="13">
         <v>24</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13">
+        <v>68</v>
       </c>
       <c r="L18" s="13">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M18" s="13">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N18" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1243,17 +1243,17 @@
         <v>17</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
+      <c r="E20" s="13">
+        <v>83</v>
       </c>
       <c r="F20" s="13">
-        <v>83</v>
+        <v>-83</v>
       </c>
       <c r="G20" s="13">
-        <v>-83</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>18</v>
@@ -1261,20 +1261,20 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>109</v>
       </c>
       <c r="L20" s="13">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M20" s="13">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N20" s="13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1282,26 +1282,26 @@
         <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>18</v>
+      <c r="E21" s="11">
+        <v>3</v>
       </c>
       <c r="F21" s="11">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G21" s="11">
-        <v>-3</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
       </c>
-      <c r="K21" s="11">
-        <v>0</v>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>18</v>
@@ -1313,7 +1313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1352,44 +1352,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>254709</v>
+        <v>239976</v>
       </c>
       <c r="F23" s="15">
-        <v>239976</v>
+        <v>237193</v>
       </c>
       <c r="G23" s="15">
-        <v>237193</v>
+        <v>210045</v>
       </c>
       <c r="H23" s="15">
-        <v>210045</v>
+        <v>153232</v>
       </c>
       <c r="I23" s="15">
-        <v>153232</v>
+        <v>206278</v>
       </c>
       <c r="J23" s="15">
-        <v>206278</v>
+        <v>0</v>
       </c>
       <c r="K23" s="15">
-        <v>0</v>
+        <v>176552</v>
       </c>
       <c r="L23" s="15">
-        <v>176552</v>
+        <v>166442</v>
       </c>
       <c r="M23" s="15">
-        <v>166442</v>
+        <v>232982</v>
       </c>
       <c r="N23" s="15">
-        <v>232982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>235609</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
@@ -1420,8 +1420,8 @@
       <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
-        <v>0</v>
+      <c r="G25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>18</v>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
@@ -1454,22 +1454,22 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>13769</v>
+        <v>7634</v>
       </c>
       <c r="F26" s="13">
-        <v>7634</v>
+        <v>3104</v>
       </c>
       <c r="G26" s="13">
-        <v>3104</v>
+        <v>680</v>
       </c>
       <c r="H26" s="13">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="13">
-        <v>0</v>
+      <c r="J26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>18</v>
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="J27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>18</v>
+      <c r="K27" s="11">
+        <v>0</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>24</v>
       </c>
@@ -1549,20 +1549,20 @@
       <c r="J28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>18</v>
+      <c r="K28" s="13">
+        <v>0</v>
       </c>
       <c r="L28" s="13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M28" s="13">
-        <v>99</v>
+        <v>4110</v>
       </c>
       <c r="N28" s="13">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>26</v>
       </c>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>11453</v>
+        <v>53462</v>
       </c>
       <c r="F29" s="11">
-        <v>53462</v>
+        <v>96946</v>
       </c>
       <c r="G29" s="11">
-        <v>96946</v>
+        <v>1744</v>
       </c>
       <c r="H29" s="11">
-        <v>1744</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
       </c>
-      <c r="J29" s="11">
-        <v>0</v>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>18</v>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
@@ -1621,11 +1621,11 @@
       <c r="H30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0</v>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1666,8 +1666,8 @@
       <c r="J31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>18</v>
+      <c r="K31" s="11">
+        <v>0</v>
       </c>
       <c r="L31" s="11">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
@@ -1702,11 +1702,11 @@
       <c r="I32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0</v>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>18</v>
@@ -1718,7 +1718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1732,8 +1732,8 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
-        <v>0</v>
+      <c r="G33" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>18</v>
@@ -1757,23 +1757,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17">
-        <v>25222</v>
+        <v>61096</v>
       </c>
       <c r="F34" s="17">
-        <v>61096</v>
+        <v>100050</v>
       </c>
       <c r="G34" s="17">
-        <v>100050</v>
+        <v>2424</v>
       </c>
       <c r="H34" s="17">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="I34" s="17">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M34" s="17">
-        <v>99</v>
+        <v>4110</v>
       </c>
       <c r="N34" s="17">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1863,8 +1863,8 @@
       <c r="G37" s="17">
         <v>0</v>
       </c>
-      <c r="H37" s="17">
-        <v>0</v>
+      <c r="H37" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>18</v>
@@ -1885,7 +1885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
@@ -1906,11 +1906,11 @@
       <c r="I38" s="15">
         <v>0</v>
       </c>
-      <c r="J38" s="15">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>18</v>
+      <c r="J38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
       </c>
       <c r="L38" s="15">
         <v>0</v>
@@ -1922,44 +1922,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
-        <v>279931</v>
+        <v>301072</v>
       </c>
       <c r="F39" s="17">
-        <v>301072</v>
+        <v>337243</v>
       </c>
       <c r="G39" s="17">
-        <v>337243</v>
+        <v>212469</v>
       </c>
       <c r="H39" s="17">
-        <v>212469</v>
+        <v>153232</v>
       </c>
       <c r="I39" s="17">
-        <v>153232</v>
+        <v>206278</v>
       </c>
       <c r="J39" s="17">
-        <v>206278</v>
+        <v>0</v>
       </c>
       <c r="K39" s="17">
-        <v>0</v>
+        <v>176552</v>
       </c>
       <c r="L39" s="17">
-        <v>176552</v>
+        <v>166541</v>
       </c>
       <c r="M39" s="17">
-        <v>166541</v>
+        <v>237092</v>
       </c>
       <c r="N39" s="17">
-        <v>237092</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>241423</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1974,7 +1974,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1989,7 +1989,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2056,7 +2056,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
@@ -2090,8 +2090,8 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>18</v>
@@ -2112,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>19</v>
       </c>
@@ -2138,20 +2138,20 @@
       <c r="J47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>18</v>
+      <c r="K47" s="13">
+        <v>367416</v>
       </c>
       <c r="L47" s="13">
-        <v>367416</v>
+        <v>457370</v>
       </c>
       <c r="M47" s="13">
-        <v>457370</v>
+        <v>509461</v>
       </c>
       <c r="N47" s="13">
-        <v>509461</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>611831</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>20</v>
       </c>
@@ -2160,23 +2160,23 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>146757</v>
+        <v>180971</v>
       </c>
       <c r="F48" s="11">
-        <v>180971</v>
+        <v>190005</v>
       </c>
       <c r="G48" s="11">
-        <v>190005</v>
+        <v>220816</v>
       </c>
       <c r="H48" s="11">
-        <v>220816</v>
+        <v>297748</v>
       </c>
       <c r="I48" s="11">
-        <v>297748</v>
-      </c>
-      <c r="J48" s="11">
         <v>378548</v>
       </c>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K48" s="11" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>21</v>
       </c>
@@ -2199,23 +2199,23 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>441295</v>
+        <v>454285</v>
       </c>
       <c r="F49" s="13">
-        <v>454285</v>
+        <v>459280</v>
       </c>
       <c r="G49" s="13">
-        <v>459280</v>
+        <v>551159</v>
       </c>
       <c r="H49" s="13">
-        <v>551159</v>
+        <v>576179</v>
       </c>
       <c r="I49" s="13">
-        <v>576179</v>
-      </c>
-      <c r="J49" s="13">
         <v>717214</v>
       </c>
+      <c r="J49" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K49" s="13" t="s">
         <v>18</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
@@ -2255,20 +2255,20 @@
       <c r="J50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>18</v>
+      <c r="K50" s="11">
+        <v>254296</v>
       </c>
       <c r="L50" s="11">
-        <v>254296</v>
+        <v>304594</v>
       </c>
       <c r="M50" s="11">
-        <v>304594</v>
+        <v>466090</v>
       </c>
       <c r="N50" s="11">
-        <v>466090</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>467238</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>23</v>
       </c>
@@ -2294,20 +2294,20 @@
       <c r="J51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>18</v>
+      <c r="K51" s="13">
+        <v>48489</v>
       </c>
       <c r="L51" s="13">
-        <v>48489</v>
+        <v>107553</v>
       </c>
       <c r="M51" s="13">
-        <v>107553</v>
+        <v>115747</v>
       </c>
       <c r="N51" s="13">
-        <v>115747</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145566</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>24</v>
       </c>
@@ -2333,20 +2333,20 @@
       <c r="J52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>18</v>
+      <c r="K52" s="11">
+        <v>447158</v>
       </c>
       <c r="L52" s="11">
-        <v>447158</v>
+        <v>413854</v>
       </c>
       <c r="M52" s="11">
-        <v>413854</v>
+        <v>540285</v>
       </c>
       <c r="N52" s="11">
-        <v>540285</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>569933</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>25</v>
       </c>
@@ -2355,37 +2355,37 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F53" s="13">
-        <v>460</v>
+        <v>161</v>
       </c>
       <c r="G53" s="13">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="H53" s="13">
+        <v>46</v>
+      </c>
+      <c r="I53" s="13">
+        <v>94</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="13">
+        <v>265</v>
+      </c>
+      <c r="L53" s="13">
+        <v>184</v>
+      </c>
+      <c r="M53" s="13">
+        <v>373</v>
+      </c>
+      <c r="N53" s="13">
         <v>196</v>
       </c>
-      <c r="I53" s="13">
-        <v>46</v>
-      </c>
-      <c r="J53" s="13">
-        <v>94</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="13">
-        <v>265</v>
-      </c>
-      <c r="M53" s="13">
-        <v>184</v>
-      </c>
-      <c r="N53" s="13">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>27</v>
       </c>
@@ -2432,17 +2432,17 @@
         <v>44</v>
       </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>18</v>
+      <c r="E55" s="13">
+        <v>847</v>
       </c>
       <c r="F55" s="13">
-        <v>847</v>
+        <v>-847</v>
       </c>
       <c r="G55" s="13">
-        <v>-847</v>
-      </c>
-      <c r="H55" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>18</v>
@@ -2450,20 +2450,20 @@
       <c r="J55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>18</v>
+      <c r="K55" s="13">
+        <v>2410</v>
       </c>
       <c r="L55" s="13">
-        <v>2410</v>
+        <v>1783</v>
       </c>
       <c r="M55" s="13">
-        <v>1783</v>
+        <v>3236</v>
       </c>
       <c r="N55" s="13">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>28</v>
       </c>
@@ -2471,26 +2471,26 @@
         <v>44</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>18</v>
+      <c r="E56" s="11">
+        <v>6</v>
       </c>
       <c r="F56" s="11">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G56" s="11">
-        <v>-6</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
       </c>
-      <c r="K56" s="11">
-        <v>0</v>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>18</v>
@@ -2502,7 +2502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>29</v>
       </c>
@@ -2541,44 +2541,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>588497</v>
+        <v>636569</v>
       </c>
       <c r="F58" s="15">
-        <v>636569</v>
+        <v>648593</v>
       </c>
       <c r="G58" s="15">
-        <v>648593</v>
+        <v>772171</v>
       </c>
       <c r="H58" s="15">
-        <v>772171</v>
+        <v>873973</v>
       </c>
       <c r="I58" s="15">
-        <v>873973</v>
+        <v>1095856</v>
       </c>
       <c r="J58" s="15">
-        <v>1095856</v>
+        <v>0</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>1120034</v>
       </c>
       <c r="L58" s="15">
-        <v>1120034</v>
+        <v>1285338</v>
       </c>
       <c r="M58" s="15">
-        <v>1285338</v>
+        <v>1635192</v>
       </c>
       <c r="N58" s="15">
-        <v>1635192</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1794763</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>45</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>20</v>
       </c>
@@ -2609,8 +2609,8 @@
       <c r="F60" s="11">
         <v>0</v>
       </c>
-      <c r="G60" s="11">
-        <v>0</v>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>18</v>
@@ -2634,7 +2634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>21</v>
       </c>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>33057</v>
+        <v>29988</v>
       </c>
       <c r="F61" s="13">
-        <v>29988</v>
+        <v>9371</v>
       </c>
       <c r="G61" s="13">
-        <v>9371</v>
+        <v>2622</v>
       </c>
       <c r="H61" s="13">
-        <v>2622</v>
+        <v>0</v>
       </c>
       <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="13">
-        <v>0</v>
+      <c r="J61" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>18</v>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>22</v>
       </c>
@@ -2699,8 +2699,8 @@
       <c r="J62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>18</v>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="11">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>24</v>
       </c>
@@ -2738,20 +2738,20 @@
       <c r="J63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>18</v>
+      <c r="K63" s="13">
+        <v>0</v>
       </c>
       <c r="L63" s="13">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="M63" s="13">
-        <v>1224</v>
+        <v>51111</v>
       </c>
       <c r="N63" s="13">
-        <v>51111</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80503</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>26</v>
       </c>
@@ -2760,22 +2760,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>34121</v>
+        <v>273837</v>
       </c>
       <c r="F64" s="11">
-        <v>273837</v>
+        <v>357275</v>
       </c>
       <c r="G64" s="11">
-        <v>357275</v>
+        <v>8718</v>
       </c>
       <c r="H64" s="11">
-        <v>8718</v>
+        <v>0</v>
       </c>
       <c r="I64" s="11">
         <v>0</v>
       </c>
-      <c r="J64" s="11">
-        <v>0</v>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>18</v>
@@ -2790,7 +2790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>32</v>
       </c>
@@ -2810,11 +2810,11 @@
       <c r="H65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="13">
-        <v>0</v>
+      <c r="I65" s="13">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K65" s="13" t="s">
         <v>18</v>
@@ -2829,7 +2829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>33</v>
       </c>
@@ -2855,8 +2855,8 @@
       <c r="J66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>18</v>
+      <c r="K66" s="11">
+        <v>0</v>
       </c>
       <c r="L66" s="11">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>34</v>
       </c>
@@ -2891,11 +2891,11 @@
       <c r="I67" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="13">
-        <v>0</v>
+      <c r="J67" s="13">
+        <v>0</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>18</v>
@@ -2907,7 +2907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>35</v>
       </c>
@@ -2921,8 +2921,8 @@
       <c r="F68" s="11">
         <v>0</v>
       </c>
-      <c r="G68" s="11">
-        <v>0</v>
+      <c r="G68" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>18</v>
@@ -2946,23 +2946,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17">
-        <v>67178</v>
+        <v>303825</v>
       </c>
       <c r="F69" s="17">
-        <v>303825</v>
+        <v>366646</v>
       </c>
       <c r="G69" s="17">
-        <v>366646</v>
+        <v>11340</v>
       </c>
       <c r="H69" s="17">
-        <v>11340</v>
+        <v>0</v>
       </c>
       <c r="I69" s="17">
         <v>0</v>
@@ -2974,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="L69" s="17">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="M69" s="17">
-        <v>1224</v>
+        <v>51111</v>
       </c>
       <c r="N69" s="17">
-        <v>51111</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80503</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>46</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>38</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>39</v>
       </c>
@@ -3054,8 +3054,8 @@
       <c r="G72" s="17">
         <v>0</v>
       </c>
-      <c r="H72" s="17">
-        <v>0</v>
+      <c r="H72" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>40</v>
       </c>
@@ -3099,11 +3099,11 @@
       <c r="I73" s="15">
         <v>0</v>
       </c>
-      <c r="J73" s="15">
-        <v>0</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>18</v>
+      <c r="J73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="15">
+        <v>0</v>
       </c>
       <c r="L73" s="15">
         <v>0</v>
@@ -3115,44 +3115,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17">
-        <v>655675</v>
+        <v>940394</v>
       </c>
       <c r="F74" s="17">
-        <v>940394</v>
+        <v>1015239</v>
       </c>
       <c r="G74" s="17">
-        <v>1015239</v>
+        <v>783511</v>
       </c>
       <c r="H74" s="17">
-        <v>783511</v>
+        <v>873973</v>
       </c>
       <c r="I74" s="17">
-        <v>873973</v>
+        <v>1095856</v>
       </c>
       <c r="J74" s="17">
-        <v>1095856</v>
+        <v>0</v>
       </c>
       <c r="K74" s="17">
-        <v>0</v>
+        <v>1120034</v>
       </c>
       <c r="L74" s="17">
-        <v>1120034</v>
+        <v>1286562</v>
       </c>
       <c r="M74" s="17">
-        <v>1286562</v>
+        <v>1686303</v>
       </c>
       <c r="N74" s="17">
-        <v>1686303</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1875266</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3182,7 +3182,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3197,7 +3197,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>47</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>48</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>19</v>
       </c>
@@ -3328,23 +3328,23 @@
       <c r="I82" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="13" t="s">
-        <v>18</v>
+      <c r="J82" s="13">
+        <v>4836942</v>
       </c>
       <c r="K82" s="13">
-        <v>4836942</v>
+        <v>5773441</v>
       </c>
       <c r="L82" s="13">
-        <v>5773441</v>
+        <v>7056630</v>
       </c>
       <c r="M82" s="13">
-        <v>7056630</v>
+        <v>7352803</v>
       </c>
       <c r="N82" s="13">
-        <v>7352803</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8506632</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>20</v>
       </c>
@@ -3353,23 +3353,23 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>2039935</v>
+        <v>2168304</v>
       </c>
       <c r="F83" s="11">
-        <v>2168304</v>
+        <v>2181533</v>
       </c>
       <c r="G83" s="11">
-        <v>2181533</v>
+        <v>2952322</v>
       </c>
       <c r="H83" s="11">
-        <v>2952322</v>
+        <v>3808294</v>
       </c>
       <c r="I83" s="11">
-        <v>3808294</v>
-      </c>
-      <c r="J83" s="11">
         <v>4139460</v>
       </c>
+      <c r="J83" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K83" s="11" t="s">
         <v>18</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>21</v>
       </c>
@@ -3392,23 +3392,23 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>2419792</v>
+        <v>2911411</v>
       </c>
       <c r="F84" s="13">
-        <v>2911411</v>
+        <v>3060765</v>
       </c>
       <c r="G84" s="13">
-        <v>3060765</v>
+        <v>4079577</v>
       </c>
       <c r="H84" s="13">
-        <v>4079577</v>
+        <v>4967669</v>
       </c>
       <c r="I84" s="13">
-        <v>4967669</v>
-      </c>
-      <c r="J84" s="13">
         <v>5230783</v>
       </c>
+      <c r="J84" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K84" s="13" t="s">
         <v>18</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>22</v>
       </c>
@@ -3445,23 +3445,23 @@
       <c r="I85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>18</v>
+      <c r="J85" s="11">
+        <v>5143279</v>
       </c>
       <c r="K85" s="11">
-        <v>5143279</v>
+        <v>6794272</v>
       </c>
       <c r="L85" s="11">
-        <v>6794272</v>
+        <v>6971485</v>
       </c>
       <c r="M85" s="11">
-        <v>6971485</v>
+        <v>6764142</v>
       </c>
       <c r="N85" s="11">
-        <v>6764142</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7257164</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>23</v>
       </c>
@@ -3484,23 +3484,23 @@
       <c r="I86" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J86" s="13" t="s">
-        <v>18</v>
+      <c r="J86" s="13">
+        <v>3984279</v>
       </c>
       <c r="K86" s="13">
-        <v>3984279</v>
+        <v>5953223</v>
       </c>
       <c r="L86" s="13">
-        <v>5953223</v>
+        <v>6332616</v>
       </c>
       <c r="M86" s="13">
-        <v>6332616</v>
+        <v>5495798</v>
       </c>
       <c r="N86" s="13">
-        <v>5495798</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5457020</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>24</v>
       </c>
@@ -3523,23 +3523,23 @@
       <c r="I87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J87" s="11" t="s">
-        <v>18</v>
+      <c r="J87" s="11">
+        <v>5767887</v>
       </c>
       <c r="K87" s="11">
-        <v>5767887</v>
+        <v>6657803</v>
       </c>
       <c r="L87" s="11">
-        <v>6657803</v>
+        <v>7114273</v>
       </c>
       <c r="M87" s="11">
-        <v>7114273</v>
+        <v>7344920</v>
       </c>
       <c r="N87" s="11">
-        <v>7344920</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7852805</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>25</v>
       </c>
@@ -3548,37 +3548,37 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>1118090</v>
+        <v>1173469</v>
       </c>
       <c r="F88" s="13">
-        <v>1173469</v>
+        <v>1257813</v>
       </c>
       <c r="G88" s="13">
-        <v>1257813</v>
+        <v>1315436</v>
       </c>
       <c r="H88" s="13">
-        <v>1315436</v>
+        <v>1769231</v>
       </c>
       <c r="I88" s="13">
-        <v>1769231</v>
+        <v>3916667</v>
       </c>
       <c r="J88" s="13">
-        <v>3916667</v>
+        <v>3871166</v>
       </c>
       <c r="K88" s="13">
-        <v>3871166</v>
+        <v>3897059</v>
       </c>
       <c r="L88" s="13">
-        <v>3897059</v>
+        <v>3870690</v>
       </c>
       <c r="M88" s="13">
-        <v>3870690</v>
+        <v>3885417</v>
       </c>
       <c r="N88" s="13">
-        <v>3885417</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>26</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>27</v>
       </c>
@@ -3625,14 +3625,14 @@
         <v>49</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>18</v>
+      <c r="E90" s="13">
+        <v>10204819</v>
       </c>
       <c r="F90" s="13">
         <v>10204819</v>
       </c>
-      <c r="G90" s="13">
-        <v>10204819</v>
+      <c r="G90" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>18</v>
@@ -3640,23 +3640,23 @@
       <c r="I90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>18</v>
+      <c r="J90" s="13">
+        <v>16010101</v>
       </c>
       <c r="K90" s="13">
-        <v>16010101</v>
+        <v>22110092</v>
       </c>
       <c r="L90" s="13">
-        <v>22110092</v>
+        <v>25882716</v>
       </c>
       <c r="M90" s="13">
-        <v>25882716</v>
-      </c>
-      <c r="N90" s="13">
         <v>44944444</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>28</v>
       </c>
@@ -3664,14 +3664,14 @@
         <v>49</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>18</v>
+      <c r="E91" s="11">
+        <v>2000000</v>
       </c>
       <c r="F91" s="11">
         <v>2000000</v>
       </c>
-      <c r="G91" s="11">
-        <v>2000000</v>
+      <c r="G91" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>18</v>
@@ -3695,7 +3695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>29</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>50</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>21</v>
       </c>
@@ -3799,13 +3799,13 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>2400828</v>
+        <v>3928216</v>
       </c>
       <c r="F95" s="13">
-        <v>3928216</v>
+        <v>3019008</v>
       </c>
       <c r="G95" s="13">
-        <v>3019008</v>
+        <v>3855882</v>
       </c>
       <c r="H95" s="13">
         <v>3855882</v>
@@ -3813,8 +3813,8 @@
       <c r="I95" s="13">
         <v>3855882</v>
       </c>
-      <c r="J95" s="13">
-        <v>3855882</v>
+      <c r="J95" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K95" s="13" t="s">
         <v>18</v>
@@ -3829,7 +3829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>22</v>
       </c>
@@ -3852,12 +3852,12 @@
       <c r="I96" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J96" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" s="11">
+      <c r="J96" s="11">
         <v>3905632</v>
       </c>
+      <c r="K96" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L96" s="11" t="s">
         <v>18</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>24</v>
       </c>
@@ -3891,23 +3891,23 @@
       <c r="I97" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J97" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="13">
+      <c r="J97" s="13">
         <v>2590909</v>
       </c>
-      <c r="L97" s="13" t="s">
-        <v>18</v>
+      <c r="K97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="13">
+        <v>12363636</v>
       </c>
       <c r="M97" s="13">
-        <v>12363636</v>
+        <v>12435766</v>
       </c>
       <c r="N97" s="13">
-        <v>12435766</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13846405</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>26</v>
       </c>
@@ -3916,13 +3916,13 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>2979219</v>
+        <v>5122087</v>
       </c>
       <c r="F98" s="11">
-        <v>5122087</v>
+        <v>3685299</v>
       </c>
       <c r="G98" s="11">
-        <v>3685299</v>
+        <v>4998853</v>
       </c>
       <c r="H98" s="11">
         <v>4998853</v>
@@ -3930,8 +3930,8 @@
       <c r="I98" s="11">
         <v>4998853</v>
       </c>
-      <c r="J98" s="11">
-        <v>4998853</v>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>18</v>
@@ -3946,7 +3946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>32</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>33</v>
       </c>
@@ -4008,12 +4008,12 @@
       <c r="I100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" s="11">
+      <c r="J100" s="11">
         <v>4998853</v>
       </c>
+      <c r="K100" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L100" s="11" t="s">
         <v>18</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>34</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>35</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4117,7 +4117,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4132,7 +4132,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4147,7 +4147,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>51</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4199,7 +4199,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>52</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -4233,8 +4233,8 @@
       <c r="G109" s="11">
         <v>0</v>
       </c>
-      <c r="H109" s="11">
-        <v>0</v>
+      <c r="H109" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>18</v>
@@ -4255,7 +4255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>19</v>
       </c>
@@ -4278,23 +4278,23 @@
       <c r="I110" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J110" s="13" t="s">
-        <v>18</v>
+      <c r="J110" s="13">
+        <v>-552613</v>
       </c>
       <c r="K110" s="13">
-        <v>-552613</v>
+        <v>-183184</v>
       </c>
       <c r="L110" s="13">
-        <v>-183184</v>
+        <v>-200439</v>
       </c>
       <c r="M110" s="13">
-        <v>-200439</v>
+        <v>-339538</v>
       </c>
       <c r="N110" s="13">
-        <v>-339538</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-271928</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>20</v>
       </c>
@@ -4303,23 +4303,23 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>-75728</v>
+        <v>-126102</v>
       </c>
       <c r="F111" s="11">
-        <v>-126102</v>
+        <v>-104518</v>
       </c>
       <c r="G111" s="11">
-        <v>-104518</v>
+        <v>-131578</v>
       </c>
       <c r="H111" s="11">
-        <v>-131578</v>
+        <v>-143661</v>
       </c>
       <c r="I111" s="11">
-        <v>-143661</v>
-      </c>
-      <c r="J111" s="11">
         <v>-287825</v>
       </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K111" s="11" t="s">
         <v>18</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>21</v>
       </c>
@@ -4342,23 +4342,23 @@
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
-        <v>-275222</v>
+        <v>-337113</v>
       </c>
       <c r="F112" s="13">
-        <v>-337113</v>
+        <v>-271342</v>
       </c>
       <c r="G112" s="13">
-        <v>-271342</v>
+        <v>-378449</v>
       </c>
       <c r="H112" s="13">
-        <v>-378449</v>
+        <v>-305047</v>
       </c>
       <c r="I112" s="13">
-        <v>-305047</v>
-      </c>
-      <c r="J112" s="13">
         <v>-232679</v>
       </c>
+      <c r="J112" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K112" s="13" t="s">
         <v>18</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>22</v>
       </c>
@@ -4395,23 +4395,23 @@
       <c r="I113" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J113" s="11" t="s">
-        <v>18</v>
+      <c r="J113" s="11">
+        <v>-716462</v>
       </c>
       <c r="K113" s="11">
-        <v>-716462</v>
+        <v>-129691</v>
       </c>
       <c r="L113" s="11">
-        <v>-129691</v>
+        <v>-187411</v>
       </c>
       <c r="M113" s="11">
-        <v>-187411</v>
+        <v>-238438</v>
       </c>
       <c r="N113" s="11">
-        <v>-238438</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-378612</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>23</v>
       </c>
@@ -4434,23 +4434,23 @@
       <c r="I114" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="13" t="s">
-        <v>18</v>
+      <c r="J114" s="13">
+        <v>-161524</v>
       </c>
       <c r="K114" s="13">
-        <v>-161524</v>
+        <v>-23420</v>
       </c>
       <c r="L114" s="13">
-        <v>-23420</v>
+        <v>-44657</v>
       </c>
       <c r="M114" s="13">
-        <v>-44657</v>
+        <v>-79233</v>
       </c>
       <c r="N114" s="13">
-        <v>-79233</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-109130</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>24</v>
       </c>
@@ -4473,23 +4473,23 @@
       <c r="I115" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="11" t="s">
-        <v>18</v>
+      <c r="J115" s="11">
+        <v>-858576</v>
       </c>
       <c r="K115" s="11">
-        <v>-858576</v>
+        <v>-236994</v>
       </c>
       <c r="L115" s="11">
-        <v>-236994</v>
+        <v>-254309</v>
       </c>
       <c r="M115" s="11">
-        <v>-254309</v>
+        <v>-326597</v>
       </c>
       <c r="N115" s="11">
-        <v>-326597</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-342417</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>25</v>
       </c>
@@ -4498,37 +4498,37 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>-262</v>
+        <v>-220</v>
       </c>
       <c r="F116" s="13">
-        <v>-220</v>
+        <v>-93</v>
       </c>
       <c r="G116" s="13">
-        <v>-93</v>
+        <v>-149</v>
       </c>
       <c r="H116" s="13">
-        <v>-149</v>
+        <v>-2</v>
       </c>
       <c r="I116" s="13">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="J116" s="13">
-        <v>-20</v>
+        <v>-344</v>
       </c>
       <c r="K116" s="13">
-        <v>-344</v>
+        <v>-124</v>
       </c>
       <c r="L116" s="13">
-        <v>-124</v>
+        <v>-26</v>
       </c>
       <c r="M116" s="13">
-        <v>-26</v>
+        <v>-584</v>
       </c>
       <c r="N116" s="13">
-        <v>-584</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>26</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>27</v>
       </c>
@@ -4575,38 +4575,38 @@
         <v>44</v>
       </c>
       <c r="D118" s="13"/>
-      <c r="E118" s="13" t="s">
-        <v>18</v>
+      <c r="E118" s="13">
+        <v>-102</v>
       </c>
       <c r="F118" s="13">
-        <v>-102</v>
+        <v>102</v>
       </c>
       <c r="G118" s="13">
-        <v>102</v>
-      </c>
-      <c r="H118" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I118" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J118" s="13" t="s">
-        <v>18</v>
+      <c r="J118" s="13">
+        <v>-874</v>
       </c>
       <c r="K118" s="13">
-        <v>-874</v>
+        <v>-636</v>
       </c>
       <c r="L118" s="13">
-        <v>-636</v>
+        <v>97</v>
       </c>
       <c r="M118" s="13">
-        <v>97</v>
+        <v>-3487</v>
       </c>
       <c r="N118" s="13">
-        <v>-3487</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>28</v>
       </c>
@@ -4614,26 +4614,26 @@
         <v>44</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>18</v>
+      <c r="E119" s="11">
+        <v>-3</v>
       </c>
       <c r="F119" s="11">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G119" s="11">
-        <v>3</v>
-      </c>
-      <c r="H119" s="11">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
       </c>
-      <c r="K119" s="11">
-        <v>0</v>
+      <c r="K119" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>18</v>
@@ -4645,7 +4645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>29</v>
       </c>
@@ -4684,44 +4684,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>-351212</v>
+        <v>-463540</v>
       </c>
       <c r="F121" s="15">
-        <v>-463540</v>
+        <v>-375848</v>
       </c>
       <c r="G121" s="15">
-        <v>-375848</v>
+        <v>-510176</v>
       </c>
       <c r="H121" s="15">
-        <v>-510176</v>
+        <v>-448710</v>
       </c>
       <c r="I121" s="15">
-        <v>-448710</v>
+        <v>-520524</v>
       </c>
       <c r="J121" s="15">
-        <v>-520524</v>
+        <v>-2290393</v>
       </c>
       <c r="K121" s="15">
-        <v>-2290393</v>
+        <v>-574049</v>
       </c>
       <c r="L121" s="15">
-        <v>-574049</v>
+        <v>-686745</v>
       </c>
       <c r="M121" s="15">
-        <v>-686745</v>
+        <v>-987877</v>
       </c>
       <c r="N121" s="15">
-        <v>-987877</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1098983</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>54</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>20</v>
       </c>
@@ -4752,8 +4752,8 @@
       <c r="F123" s="11">
         <v>0</v>
       </c>
-      <c r="G123" s="11">
-        <v>0</v>
+      <c r="G123" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>18</v>
@@ -4777,7 +4777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>21</v>
       </c>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>-19463</v>
+        <v>-22033</v>
       </c>
       <c r="F124" s="13">
-        <v>-22033</v>
+        <v>-927</v>
       </c>
       <c r="G124" s="13">
-        <v>-927</v>
+        <v>-1876</v>
       </c>
       <c r="H124" s="13">
-        <v>-1876</v>
+        <v>-131</v>
       </c>
       <c r="I124" s="13">
-        <v>-131</v>
-      </c>
-      <c r="J124" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K124" s="13" t="s">
         <v>18</v>
@@ -4816,7 +4816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>22</v>
       </c>
@@ -4839,11 +4839,11 @@
       <c r="I125" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J125" s="11" t="s">
-        <v>18</v>
+      <c r="J125" s="11">
+        <v>-2163</v>
       </c>
       <c r="K125" s="11">
-        <v>-2163</v>
+        <v>0</v>
       </c>
       <c r="L125" s="11">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>24</v>
       </c>
@@ -4878,23 +4878,23 @@
       <c r="I126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J126" s="13" t="s">
-        <v>18</v>
+      <c r="J126" s="13">
+        <v>-22</v>
       </c>
       <c r="K126" s="13">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="L126" s="13">
-        <v>0</v>
+        <v>-406</v>
       </c>
       <c r="M126" s="13">
-        <v>-406</v>
+        <v>406</v>
       </c>
       <c r="N126" s="13">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-51172</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>26</v>
       </c>
@@ -4903,22 +4903,22 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>-10</v>
+        <v>-88280</v>
       </c>
       <c r="F127" s="11">
-        <v>-88280</v>
+        <v>6330</v>
       </c>
       <c r="G127" s="11">
-        <v>6330</v>
+        <v>-2713</v>
       </c>
       <c r="H127" s="11">
-        <v>-2713</v>
+        <v>-150</v>
       </c>
       <c r="I127" s="11">
-        <v>-150</v>
-      </c>
-      <c r="J127" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K127" s="11" t="s">
         <v>18</v>
@@ -4933,7 +4933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>32</v>
       </c>
@@ -4953,11 +4953,11 @@
       <c r="H128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I128" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J128" s="13">
-        <v>0</v>
+      <c r="I128" s="13">
+        <v>0</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K128" s="13" t="s">
         <v>18</v>
@@ -4972,7 +4972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>33</v>
       </c>
@@ -4995,11 +4995,11 @@
       <c r="I129" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J129" s="11" t="s">
-        <v>18</v>
+      <c r="J129" s="11">
+        <v>-3202</v>
       </c>
       <c r="K129" s="11">
-        <v>-3202</v>
+        <v>0</v>
       </c>
       <c r="L129" s="11">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>34</v>
       </c>
@@ -5034,11 +5034,11 @@
       <c r="I130" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J130" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K130" s="13">
-        <v>0</v>
+      <c r="J130" s="13">
+        <v>0</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L130" s="13" t="s">
         <v>18</v>
@@ -5050,7 +5050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>35</v>
       </c>
@@ -5064,8 +5064,8 @@
       <c r="F131" s="11">
         <v>0</v>
       </c>
-      <c r="G131" s="11">
-        <v>0</v>
+      <c r="G131" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>18</v>
@@ -5089,44 +5089,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17">
-        <v>-19473</v>
+        <v>-110313</v>
       </c>
       <c r="F132" s="17">
-        <v>-110313</v>
+        <v>5403</v>
       </c>
       <c r="G132" s="17">
-        <v>5403</v>
+        <v>-4589</v>
       </c>
       <c r="H132" s="17">
-        <v>-4589</v>
+        <v>-281</v>
       </c>
       <c r="I132" s="17">
-        <v>-281</v>
+        <v>0</v>
       </c>
       <c r="J132" s="17">
-        <v>0</v>
+        <v>-5387</v>
       </c>
       <c r="K132" s="17">
-        <v>-5387</v>
+        <v>0</v>
       </c>
       <c r="L132" s="17">
-        <v>0</v>
+        <v>-406</v>
       </c>
       <c r="M132" s="17">
-        <v>-406</v>
+        <v>406</v>
       </c>
       <c r="N132" s="17">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-51172</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="18" t="s">
         <v>56</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="M133" s="19"/>
       <c r="N133" s="19"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
         <v>57</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="16" t="s">
         <v>39</v>
       </c>
@@ -5197,8 +5197,8 @@
       <c r="G135" s="17">
         <v>0</v>
       </c>
-      <c r="H135" s="17">
-        <v>0</v>
+      <c r="H135" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I135" s="17" t="s">
         <v>18</v>
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
         <v>40</v>
       </c>
@@ -5258,44 +5258,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
-        <v>-370685</v>
+        <v>-573853</v>
       </c>
       <c r="F137" s="17">
-        <v>-573853</v>
+        <v>-370445</v>
       </c>
       <c r="G137" s="17">
-        <v>-370445</v>
+        <v>-514765</v>
       </c>
       <c r="H137" s="17">
-        <v>-514765</v>
+        <v>-448991</v>
       </c>
       <c r="I137" s="17">
-        <v>-448991</v>
+        <v>-520524</v>
       </c>
       <c r="J137" s="17">
-        <v>-520524</v>
+        <v>-2295780</v>
       </c>
       <c r="K137" s="17">
-        <v>-2295780</v>
+        <v>-574049</v>
       </c>
       <c r="L137" s="17">
-        <v>-574049</v>
+        <v>-687151</v>
       </c>
       <c r="M137" s="17">
-        <v>-687151</v>
+        <v>-987471</v>
       </c>
       <c r="N137" s="17">
-        <v>-987471</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1150155</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5310,7 +5310,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5325,7 +5325,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5340,7 +5340,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>58</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5392,7 +5392,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>59</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>16</v>
       </c>
@@ -5426,8 +5426,8 @@
       <c r="G144" s="11">
         <v>0</v>
       </c>
-      <c r="H144" s="11">
-        <v>0</v>
+      <c r="H144" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>18</v>
@@ -5448,7 +5448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>19</v>
       </c>
@@ -5471,23 +5471,23 @@
       <c r="I145" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J145" s="13" t="s">
-        <v>18</v>
+      <c r="J145" s="13">
+        <v>576605</v>
       </c>
       <c r="K145" s="13">
-        <v>576605</v>
+        <v>184232</v>
       </c>
       <c r="L145" s="13">
-        <v>184232</v>
+        <v>256931</v>
       </c>
       <c r="M145" s="13">
-        <v>256931</v>
+        <v>169923</v>
       </c>
       <c r="N145" s="13">
-        <v>169923</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>339903</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>20</v>
       </c>
@@ -5496,23 +5496,23 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>71029</v>
+        <v>54869</v>
       </c>
       <c r="F146" s="11">
-        <v>54869</v>
+        <v>86334</v>
       </c>
       <c r="G146" s="11">
-        <v>86334</v>
+        <v>89238</v>
       </c>
       <c r="H146" s="11">
-        <v>89238</v>
+        <v>154087</v>
       </c>
       <c r="I146" s="11">
-        <v>154087</v>
-      </c>
-      <c r="J146" s="11">
         <v>90723</v>
       </c>
+      <c r="J146" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K146" s="11" t="s">
         <v>18</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="12" t="s">
         <v>21</v>
       </c>
@@ -5535,23 +5535,23 @@
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13">
-        <v>166073</v>
+        <v>117172</v>
       </c>
       <c r="F147" s="13">
-        <v>117172</v>
+        <v>187938</v>
       </c>
       <c r="G147" s="13">
-        <v>187938</v>
+        <v>172710</v>
       </c>
       <c r="H147" s="13">
-        <v>172710</v>
+        <v>271132</v>
       </c>
       <c r="I147" s="13">
-        <v>271132</v>
-      </c>
-      <c r="J147" s="13">
         <v>484535</v>
       </c>
+      <c r="J147" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K147" s="13" t="s">
         <v>18</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>22</v>
       </c>
@@ -5588,23 +5588,23 @@
       <c r="I148" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J148" s="11" t="s">
-        <v>18</v>
+      <c r="J148" s="11">
+        <v>429008</v>
       </c>
       <c r="K148" s="11">
-        <v>429008</v>
+        <v>124605</v>
       </c>
       <c r="L148" s="11">
-        <v>124605</v>
+        <v>117183</v>
       </c>
       <c r="M148" s="11">
-        <v>117183</v>
+        <v>227652</v>
       </c>
       <c r="N148" s="11">
-        <v>227652</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>88626</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>23</v>
       </c>
@@ -5627,23 +5627,23 @@
       <c r="I149" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J149" s="13" t="s">
-        <v>18</v>
+      <c r="J149" s="13">
+        <v>141086</v>
       </c>
       <c r="K149" s="13">
-        <v>141086</v>
+        <v>25069</v>
       </c>
       <c r="L149" s="13">
-        <v>25069</v>
+        <v>62896</v>
       </c>
       <c r="M149" s="13">
-        <v>62896</v>
+        <v>36514</v>
       </c>
       <c r="N149" s="13">
-        <v>36514</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36436</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>24</v>
       </c>
@@ -5666,23 +5666,23 @@
       <c r="I150" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J150" s="11" t="s">
-        <v>18</v>
+      <c r="J150" s="11">
+        <v>653666</v>
       </c>
       <c r="K150" s="11">
-        <v>653666</v>
+        <v>210164</v>
       </c>
       <c r="L150" s="11">
-        <v>210164</v>
+        <v>159545</v>
       </c>
       <c r="M150" s="11">
-        <v>159545</v>
+        <v>213688</v>
       </c>
       <c r="N150" s="11">
-        <v>213688</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>227516</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>25</v>
       </c>
@@ -5691,37 +5691,37 @@
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="F151" s="13">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="G151" s="13">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H151" s="13">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I151" s="13">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="J151" s="13">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="K151" s="13">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="L151" s="13">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M151" s="13">
-        <v>158</v>
+        <v>-211</v>
       </c>
       <c r="N151" s="13">
-        <v>-211</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>26</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="12" t="s">
         <v>27</v>
       </c>
@@ -5768,38 +5768,38 @@
         <v>44</v>
       </c>
       <c r="D153" s="13"/>
-      <c r="E153" s="13" t="s">
-        <v>18</v>
+      <c r="E153" s="13">
+        <v>745</v>
       </c>
       <c r="F153" s="13">
-        <v>745</v>
+        <v>-745</v>
       </c>
       <c r="G153" s="13">
-        <v>-745</v>
-      </c>
-      <c r="H153" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I153" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J153" s="13" t="s">
-        <v>18</v>
+      <c r="J153" s="13">
+        <v>3881</v>
       </c>
       <c r="K153" s="13">
-        <v>3881</v>
+        <v>1774</v>
       </c>
       <c r="L153" s="13">
-        <v>1774</v>
+        <v>1880</v>
       </c>
       <c r="M153" s="13">
-        <v>1880</v>
+        <v>-251</v>
       </c>
       <c r="N153" s="13">
-        <v>-251</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>28</v>
       </c>
@@ -5807,26 +5807,26 @@
         <v>44</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="11" t="s">
-        <v>18</v>
+      <c r="E154" s="11">
+        <v>3</v>
       </c>
       <c r="F154" s="11">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G154" s="11">
-        <v>-3</v>
-      </c>
-      <c r="H154" s="11">
-        <v>0</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
       </c>
-      <c r="K154" s="11">
-        <v>0</v>
+      <c r="K154" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L154" s="11" t="s">
         <v>18</v>
@@ -5838,7 +5838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="12" t="s">
         <v>29</v>
       </c>
@@ -5877,44 +5877,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15">
-        <v>237285</v>
+        <v>173029</v>
       </c>
       <c r="F156" s="15">
-        <v>173029</v>
+        <v>273592</v>
       </c>
       <c r="G156" s="15">
-        <v>273592</v>
+        <v>261995</v>
       </c>
       <c r="H156" s="15">
-        <v>261995</v>
+        <v>425263</v>
       </c>
       <c r="I156" s="15">
-        <v>425263</v>
+        <v>575332</v>
       </c>
       <c r="J156" s="15">
-        <v>575332</v>
+        <v>1804533</v>
       </c>
       <c r="K156" s="15">
-        <v>1804533</v>
+        <v>545985</v>
       </c>
       <c r="L156" s="15">
-        <v>545985</v>
+        <v>598593</v>
       </c>
       <c r="M156" s="15">
-        <v>598593</v>
+        <v>647315</v>
       </c>
       <c r="N156" s="15">
-        <v>647315</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695780</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>61</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>20</v>
       </c>
@@ -5945,8 +5945,8 @@
       <c r="F158" s="11">
         <v>0</v>
       </c>
-      <c r="G158" s="11">
-        <v>0</v>
+      <c r="G158" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H158" s="11" t="s">
         <v>18</v>
@@ -5970,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>21</v>
       </c>
@@ -5979,22 +5979,22 @@
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>13594</v>
+        <v>7955</v>
       </c>
       <c r="F159" s="13">
-        <v>7955</v>
+        <v>8444</v>
       </c>
       <c r="G159" s="13">
-        <v>8444</v>
+        <v>746</v>
       </c>
       <c r="H159" s="13">
-        <v>746</v>
+        <v>-131</v>
       </c>
       <c r="I159" s="13">
-        <v>-131</v>
-      </c>
-      <c r="J159" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K159" s="13" t="s">
         <v>18</v>
@@ -6009,7 +6009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>22</v>
       </c>
@@ -6032,11 +6032,11 @@
       <c r="I160" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J160" s="11" t="s">
-        <v>18</v>
+      <c r="J160" s="11">
+        <v>403</v>
       </c>
       <c r="K160" s="11">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="L160" s="11">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>24</v>
       </c>
@@ -6071,23 +6071,23 @@
       <c r="I161" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J161" s="13" t="s">
-        <v>18</v>
+      <c r="J161" s="13">
+        <v>35</v>
       </c>
       <c r="K161" s="13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L161" s="13">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="M161" s="13">
-        <v>818</v>
+        <v>51517</v>
       </c>
       <c r="N161" s="13">
-        <v>51517</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29331</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>26</v>
       </c>
@@ -6096,22 +6096,22 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>34111</v>
+        <v>185557</v>
       </c>
       <c r="F162" s="11">
-        <v>185557</v>
+        <v>7505</v>
       </c>
       <c r="G162" s="11">
-        <v>7505</v>
+        <v>6005</v>
       </c>
       <c r="H162" s="11">
-        <v>6005</v>
+        <v>-150</v>
       </c>
       <c r="I162" s="11">
-        <v>-150</v>
-      </c>
-      <c r="J162" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K162" s="11" t="s">
         <v>18</v>
@@ -6126,7 +6126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>32</v>
       </c>
@@ -6146,11 +6146,11 @@
       <c r="H163" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I163" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J163" s="13">
-        <v>0</v>
+      <c r="I163" s="13">
+        <v>0</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K163" s="13" t="s">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>33</v>
       </c>
@@ -6188,11 +6188,11 @@
       <c r="I164" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J164" s="11" t="s">
-        <v>18</v>
+      <c r="J164" s="11">
+        <v>5516</v>
       </c>
       <c r="K164" s="11">
-        <v>5516</v>
+        <v>0</v>
       </c>
       <c r="L164" s="11">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>34</v>
       </c>
@@ -6227,11 +6227,11 @@
       <c r="I165" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J165" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K165" s="13">
-        <v>0</v>
+      <c r="J165" s="13">
+        <v>0</v>
+      </c>
+      <c r="K165" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L165" s="13" t="s">
         <v>18</v>
@@ -6243,7 +6243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>35</v>
       </c>
@@ -6257,8 +6257,8 @@
       <c r="F166" s="11">
         <v>0</v>
       </c>
-      <c r="G166" s="11">
-        <v>0</v>
+      <c r="G166" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H166" s="11" t="s">
         <v>18</v>
@@ -6282,44 +6282,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17">
-        <v>47705</v>
+        <v>193512</v>
       </c>
       <c r="F167" s="17">
-        <v>193512</v>
+        <v>15949</v>
       </c>
       <c r="G167" s="17">
-        <v>15949</v>
+        <v>6751</v>
       </c>
       <c r="H167" s="17">
-        <v>6751</v>
+        <v>-281</v>
       </c>
       <c r="I167" s="17">
-        <v>-281</v>
+        <v>0</v>
       </c>
       <c r="J167" s="17">
-        <v>0</v>
+        <v>5954</v>
       </c>
       <c r="K167" s="17">
-        <v>5954</v>
+        <v>0</v>
       </c>
       <c r="L167" s="17">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="M167" s="17">
-        <v>818</v>
+        <v>51517</v>
       </c>
       <c r="N167" s="17">
-        <v>51517</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29331</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="18" t="s">
         <v>63</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>64</v>
       </c>
@@ -6373,41 +6373,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17">
-        <v>284990</v>
+        <v>366541</v>
       </c>
       <c r="F170" s="17">
-        <v>366541</v>
+        <v>289541</v>
       </c>
       <c r="G170" s="17">
-        <v>289541</v>
+        <v>268746</v>
       </c>
       <c r="H170" s="17">
-        <v>268746</v>
+        <v>424982</v>
       </c>
       <c r="I170" s="17">
-        <v>424982</v>
+        <v>575332</v>
       </c>
       <c r="J170" s="17">
-        <v>575332</v>
+        <v>1810487</v>
       </c>
       <c r="K170" s="17">
-        <v>1810487</v>
+        <v>545985</v>
       </c>
       <c r="L170" s="17">
-        <v>545985</v>
+        <v>599411</v>
       </c>
       <c r="M170" s="17">
-        <v>599411</v>
+        <v>698832</v>
       </c>
       <c r="N170" s="17">
-        <v>698832</v>
+        <v>725111</v>
       </c>
     </row>
   </sheetData>
